--- a/biology/Botanique/Josef_Jakob_Halda/Josef_Jakob_Halda.xlsx
+++ b/biology/Botanique/Josef_Jakob_Halda/Josef_Jakob_Halda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Jakob Halda, né en 1943, est un botaniste tchèque qui s'est notamment spécialisé dans la flore d'Amérique du Sud et qui a effectué de nombreuses expéditions botaniques au Mexique. Sa carrière se déroule au sein de l'Institut de botanique de l'Académie des sciences de Prague.
 </t>
@@ -513,16 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Articles
-1996 Some taxonomic problems in the genus Daphne L. II, Acta Musei Richnoviensis, 6 (3)
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1996 Some taxonomic problems in the genus Daphne L. II, Acta Musei Richnoviensis, 6 (3)
 1996, avec L. Horáček, New desciptions and combinations Trillium ×crockeranum, Acta Musei Richnoviensis, 6 (3), 44 pp.
 1997 Systematic treatment of the Genus Paeonia L. with some nomenclatoric changes, Acta Musei Richnoviensis, 4 (2)
 1997 Synopsis of the Genus Haworthia Duval, with some nomenclatoric changes, Acta Musei Richnoviensis, 4 (2)
-1997 Dwarf succulent saxifragas (section Porphyrion Engler &amp; Irmscher), Acta Musei Richnoviensis, 4 (2)
-Livres
-1992 The genus Primula in cultivation and the wild, éd. Tethys Books
+1997 Dwarf succulent saxifragas (section Porphyrion Engler &amp; Irmscher), Acta Musei Richnoviensis, 4 (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Josef_Jakob_Halda</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Josef_Jakob_Halda</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques publications</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1992 The genus Primula in cultivation and the wild, éd. Tethys Books
 1996 The Genus Gentiana, éd. Sen Dobre
-2004, avec J.W. Waddick, The Genus Paeonia [illustrations de Jamila Haldova[1]], éd. Timber Press, Inc. 228 pp.  (ISBN 0-88192-612-4)</t>
+2004, avec J.W. Waddick, The Genus Paeonia [illustrations de Jamila Haldova], éd. Timber Press, Inc. 228 pp.  (ISBN 0-88192-612-4)</t>
         </is>
       </c>
     </row>
